--- a/Excel/data_filtering_charts.xlsx
+++ b/Excel/data_filtering_charts.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 4\Desktop\data analystics\Excel\"/>
@@ -24,7 +24,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
   <si>
     <t>Data Filtering</t>
   </si>
@@ -366,6 +368,63 @@
   <si>
     <t>Sum of Sales</t>
   </si>
+  <si>
+    <t>Pivot Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert &gt; pivot chart &amp; table </t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Count of COGS</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Count of Sales Rep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deisgn &gt; report layout </t>
+  </si>
+  <si>
+    <t>design &gt; subtotal</t>
+  </si>
+  <si>
+    <t>rename &gt; value field</t>
+  </si>
+  <si>
+    <t>we can count , sum by value field settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyze &gt; show </t>
+  </si>
+  <si>
+    <t>Pivot group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can group data by date </t>
+  </si>
+  <si>
+    <t>pivot slice</t>
+  </si>
+  <si>
+    <t>analyze  &gt; insert slicer</t>
+  </si>
+  <si>
+    <t>adjust slicer height width also</t>
+  </si>
+  <si>
+    <t>pivot table timeline</t>
+  </si>
+  <si>
+    <t>connect two table also by report connections</t>
+  </si>
+  <si>
+    <t>analyze &gt; insert timeline</t>
+  </si>
 </sst>
 </file>
 
@@ -531,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -564,10 +623,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,11 +996,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="608232496"/>
-        <c:axId val="608223792"/>
+        <c:axId val="1764965968"/>
+        <c:axId val="1764968688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608232496"/>
+        <c:axId val="1764965968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +1040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608223792"/>
+        <c:crossAx val="1764968688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608223792"/>
+        <c:axId val="1764968688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608232496"/>
+        <c:crossAx val="1764965968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1130,6 +1193,763 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data_filtering_charts.xlsx]Sheet1!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0692018658788565E-2"/>
+          <c:y val="0.15680336832895886"/>
+          <c:w val="0.74845603674540684"/>
+          <c:h val="0.53774387576552929"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$126:$H$129</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Marry</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mike</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Newton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$126:$I$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1725929136"/>
+        <c:axId val="1725926416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1725929136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725926416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1725926416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725929136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data_filtering_charts.xlsx]Sheet1!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$129</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count of COGS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$130:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Midwest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>west</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$B$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$129</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count of Sales Rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$130:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Midwest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>west</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$130:$C$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1725931856"/>
+        <c:axId val="1725918800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1725931856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725918800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1725918800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725931856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1165,11 +1985,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="608231408"/>
-        <c:axId val="608221616"/>
+        <c:axId val="1764970320"/>
+        <c:axId val="1764959440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608231408"/>
+        <c:axId val="1764970320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +2031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608221616"/>
+        <c:crossAx val="1764959440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1219,7 +2039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608221616"/>
+        <c:axId val="1764959440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +2089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608231408"/>
+        <c:crossAx val="1764970320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,11 +2432,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="608229776"/>
-        <c:axId val="608222160"/>
+        <c:axId val="1725651120"/>
+        <c:axId val="1725653296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608229776"/>
+        <c:axId val="1725651120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +2479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608222160"/>
+        <c:crossAx val="1725653296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +2487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608222160"/>
+        <c:axId val="1725653296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +2538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608229776"/>
+        <c:crossAx val="1725651120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2255,11 +3075,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="608228688"/>
-        <c:axId val="608229232"/>
+        <c:axId val="1546940432"/>
+        <c:axId val="1546942064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608228688"/>
+        <c:axId val="1546940432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +3122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608229232"/>
+        <c:crossAx val="1546942064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2310,7 +3130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608229232"/>
+        <c:axId val="1546942064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +3181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608228688"/>
+        <c:crossAx val="1546940432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2636,11 +3456,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="567795600"/>
-        <c:axId val="499137904"/>
+        <c:axId val="1820097232"/>
+        <c:axId val="1820091792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="567795600"/>
+        <c:axId val="1820097232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +3503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499137904"/>
+        <c:crossAx val="1820091792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +3511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499137904"/>
+        <c:axId val="1820091792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2742,7 +3562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567795600"/>
+        <c:crossAx val="1820097232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3021,11 +3841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="607645680"/>
-        <c:axId val="607640240"/>
+        <c:axId val="1820082000"/>
+        <c:axId val="1820092336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="607645680"/>
+        <c:axId val="1820082000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607640240"/>
+        <c:crossAx val="1820092336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3076,7 +3896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="607640240"/>
+        <c:axId val="1820092336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607645680"/>
+        <c:crossAx val="1820082000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3368,11 +4188,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="607636432"/>
-        <c:axId val="607644592"/>
+        <c:axId val="1820087440"/>
+        <c:axId val="1820082544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="607636432"/>
+        <c:axId val="1820087440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3412,7 +4232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607644592"/>
+        <c:crossAx val="1820082544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3420,7 +4240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="607644592"/>
+        <c:axId val="1820082544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3468,7 +4288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607636432"/>
+        <c:crossAx val="1820087440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3735,11 +4555,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="499141712"/>
-        <c:axId val="499135184"/>
+        <c:axId val="1820084176"/>
+        <c:axId val="1820094512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="499141712"/>
+        <c:axId val="1820084176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,7 +4602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499135184"/>
+        <c:crossAx val="1820094512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3790,7 +4610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499135184"/>
+        <c:axId val="1820094512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +4661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499141712"/>
+        <c:crossAx val="1820084176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3934,6 +4754,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4796,6 +5696,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9087,6 +10993,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>364191</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106456</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>430306</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>823631</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>746312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>301997</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>60512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9132,6 +11098,87 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL 4" refreshedDate="45600.734112731479" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B123:E126" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="west"/>
+        <s v="East"/>
+        <s v="Midwest"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales Rep" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Mike"/>
+        <s v="Newton"/>
+        <s v="Marry"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COGS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="126"/>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1212" maxValue="12121"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL 4" refreshedDate="45600.737467361112" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="4">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B123:E127" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="west"/>
+        <s v="East"/>
+        <s v="Midwest"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales Rep" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Mike"/>
+        <s v="Newton"/>
+        <s v="Marry"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COGS" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="126" count="4">
+        <n v="126"/>
+        <n v="12"/>
+        <n v="122"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1212" maxValue="12121" count="3">
+        <n v="12121"/>
+        <n v="1212"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
   <r>
@@ -9158,8 +11205,60 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="126"/>
+    <n v="12121"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="12121"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="122"/>
+    <n v="1212"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -9178,7 +11277,180 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A129:C134" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of COGS" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Sales Rep" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="H125:I129" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K110:L114" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -9251,8 +11523,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G114:G121" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -9711,17 +11983,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" topLeftCell="C131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="41.25" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="21.7109375" style="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="21.7109375" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1"/>
+    <col min="7" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="1"/>
     <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="1" customWidth="1"/>
@@ -9731,13 +12009,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10007,15 +12285,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -10107,14 +12385,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -10224,12 +12502,12 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -10347,12 +12625,12 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -10413,21 +12691,21 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="56" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -10496,13 +12774,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -10662,13 +12940,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
     </row>
     <row r="91" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
@@ -10727,12 +13005,12 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
     </row>
     <row r="101" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -10810,14 +13088,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+    <row r="108" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
       <c r="F108" s="1" t="s">
         <v>105</v>
       </c>
@@ -10829,7 +13107,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>1</v>
       </c>
@@ -10855,7 +13133,7 @@
       <c r="N110"/>
       <c r="O110"/>
     </row>
-    <row r="111" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -10877,14 +13155,14 @@
       <c r="K111" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L111" s="19">
+      <c r="L111" s="18">
         <v>12121</v>
       </c>
       <c r="M111"/>
       <c r="N111"/>
       <c r="O111"/>
     </row>
-    <row r="112" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
@@ -10903,14 +13181,14 @@
       <c r="K112" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L112" s="19">
+      <c r="L112" s="18">
         <v>1212</v>
       </c>
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
     </row>
-    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -10929,14 +13207,14 @@
       <c r="K113" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L113" s="19">
+      <c r="L113" s="18">
         <v>12121</v>
       </c>
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113"/>
     </row>
-    <row r="114" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G114" s="14" t="s">
         <v>108</v>
       </c>
@@ -10945,14 +13223,14 @@
       <c r="K114" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L114" s="19">
+      <c r="L114" s="18">
         <v>25454</v>
       </c>
       <c r="M114"/>
       <c r="N114"/>
       <c r="O114"/>
     </row>
-    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G115" s="15" t="s">
         <v>11</v>
       </c>
@@ -10964,7 +13242,7 @@
       <c r="N115"/>
       <c r="O115"/>
     </row>
-    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G116" s="16" t="s">
         <v>12</v>
       </c>
@@ -10974,7 +13252,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G117" s="15" t="s">
         <v>14</v>
       </c>
@@ -10984,7 +13262,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G118" s="16" t="s">
         <v>15</v>
       </c>
@@ -10994,7 +13272,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G119" s="15" t="s">
         <v>7</v>
       </c>
@@ -11004,7 +13282,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G120" s="16" t="s">
         <v>8</v>
       </c>
@@ -11014,7 +13292,7 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G121" s="15" t="s">
         <v>42</v>
       </c>
@@ -11024,7 +13302,15 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
@@ -11032,7 +13318,19 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -11040,7 +13338,22 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="1">
+        <v>126</v>
+      </c>
+      <c r="E124" s="1">
+        <v>12121</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -11049,51 +13362,306 @@
       <c r="M124"/>
     </row>
     <row r="125" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="1">
+        <v>12</v>
+      </c>
+      <c r="E125" s="1">
+        <v>12121</v>
+      </c>
       <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
+      <c r="H125" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I125" t="s">
+        <v>109</v>
+      </c>
+      <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
       <c r="M125"/>
     </row>
     <row r="126" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="1">
+        <v>122</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1212</v>
+      </c>
       <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
+      <c r="H126" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="18">
+        <v>1212</v>
+      </c>
+      <c r="J126"/>
     </row>
     <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>114</v>
+      </c>
       <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127"/>
+      <c r="H127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="18">
+        <v>12121</v>
+      </c>
+      <c r="J127"/>
     </row>
     <row r="128" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-    </row>
-    <row r="129" spans="7:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H128" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="18">
+        <v>12121</v>
+      </c>
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>113</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129"/>
       <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-    </row>
-    <row r="130" spans="7:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="G130"/>
+      <c r="H129" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I129" s="18">
+        <v>25454</v>
+      </c>
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="18">
+        <v>1</v>
+      </c>
+      <c r="C130" s="18">
+        <v>1</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H130"/>
       <c r="I130"/>
-    </row>
-    <row r="131" spans="7:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="G131"/>
+      <c r="J130"/>
+    </row>
+    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="18">
+        <v>1</v>
+      </c>
+      <c r="C131" s="18">
+        <v>1</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H131"/>
       <c r="I131"/>
+      <c r="J131"/>
+    </row>
+    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="18">
+        <v>1</v>
+      </c>
+      <c r="C132" s="18">
+        <v>1</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+    </row>
+    <row r="133" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+    </row>
+    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" s="18">
+        <v>3</v>
+      </c>
+      <c r="C134" s="18">
+        <v>3</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+    </row>
+    <row r="135" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+    </row>
+    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+    </row>
+    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+    </row>
+    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+    </row>
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+    </row>
+    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+    </row>
+    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A122:F122"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A20:G20"/>
@@ -11107,10 +13675,10 @@
     <mergeCell ref="A100:D100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
   <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">

--- a/Excel/data_filtering_charts.xlsx
+++ b/Excel/data_filtering_charts.xlsx
@@ -2,33 +2,56 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 4\Desktop\data analystics\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="data filtering class" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
+    <sheet name="data filtering - class - aravin" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'data filtering - class - aravin'!$A$2:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'data filtering class'!$A$2:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$2:$F$5</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="6">'data filtering - class - aravin'!$G$3:$G$4</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">'data filtering class'!$F$2:$F$3</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">Sheet1!$G$2:$G$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="6">'data filtering - class - aravin'!$J$2:$N$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">'data filtering class'!$M$2:$Q$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Sheet1!$A$18:$F$18</definedName>
     <definedName name="mytable">Table3[#All]</definedName>
+    <definedName name="Slicer_Region">#N/A</definedName>
+    <definedName name="Slicer_Region1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="10" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="13" r:id="rId12"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -37,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="137">
   <si>
     <t>Data Filtering</t>
   </si>
@@ -425,12 +448,36 @@
   <si>
     <t>analyze &gt; insert timeline</t>
   </si>
+  <si>
+    <t>Data filtering</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>&gt;1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Slicer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total</t>
+  </si>
+  <si>
+    <t>InStore sales</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,14 +487,52 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +548,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,20 +687,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -617,41 +702,281 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="69">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -665,7 +990,247 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="16"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -679,36 +1244,87 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -722,7 +1338,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -735,8 +1351,319 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF29D64"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -763,6 +1690,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -996,11 +1924,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1764965968"/>
-        <c:axId val="1764968688"/>
+        <c:axId val="-345191744"/>
+        <c:axId val="-345191200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1764965968"/>
+        <c:axId val="-345191744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1764968688"/>
+        <c:crossAx val="-345191200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,7 +1976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1764968688"/>
+        <c:axId val="-345191200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +2010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1764965968"/>
+        <c:crossAx val="-345191744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1124,6 +2052,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1346,11 +2275,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1725929136"/>
-        <c:axId val="1725926416"/>
+        <c:axId val="-340551424"/>
+        <c:axId val="-340553056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1725929136"/>
+        <c:axId val="-340551424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +2322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725926416"/>
+        <c:crossAx val="-340553056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1401,7 +2330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725926416"/>
+        <c:axId val="-340553056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +2381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725929136"/>
+        <c:crossAx val="-340551424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1752,11 +2681,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1725931856"/>
-        <c:axId val="1725918800"/>
+        <c:axId val="-340552512"/>
+        <c:axId val="-340551968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1725931856"/>
+        <c:axId val="-340552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +2728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725918800"/>
+        <c:crossAx val="-340551968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1807,7 +2736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725918800"/>
+        <c:axId val="-340551968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +2787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725931856"/>
+        <c:crossAx val="-340552512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,6 +2879,1062 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data filtering class'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Toys</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data filtering class'!$B$11:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>In Store sales </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Web Site Sales </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mail Order Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data filtering class'!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data filtering class'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data filtering class'!$B$11:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>In Store sales </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Web Site Sales </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mail Order Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data filtering class'!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>43500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data filtering class'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laptops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data filtering class'!$B$11:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>In Store sales </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Web Site Sales </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mail Order Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data filtering class'!$B$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="-340538912"/>
+        <c:axId val="-340550880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-340538912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-340550880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-340550880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-340538912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Ink Free" panose="03080402000500000000" pitchFamily="66" charset="0"/>
+              </a:rPr>
+              <a:t>Column</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Ink Free" panose="03080402000500000000" pitchFamily="66" charset="0"/>
+              </a:rPr>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Ink Free" panose="03080402000500000000" pitchFamily="66" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39938852238064837"/>
+          <c:y val="6.37958639517201E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0692038495188101E-2"/>
+          <c:y val="0.24520888013998252"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data filtering - class - aravin'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COGS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data filtering - class - aravin'!$C$8:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mike</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Newton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data filtering - class - aravin'!$D$8:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data filtering - class - aravin'!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data filtering - class - aravin'!$C$8:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mike</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Newton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data filtering - class - aravin'!$E$8:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-165438416"/>
+        <c:axId val="-165444944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-165438416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-165444944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-165444944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-165438416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent6">
+          <a:lumMod val="20000"/>
+          <a:lumOff val="80000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1985,11 +3970,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1764970320"/>
-        <c:axId val="1764959440"/>
+        <c:axId val="-345186304"/>
+        <c:axId val="-345194464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1764970320"/>
+        <c:axId val="-345186304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +4016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1764959440"/>
+        <c:crossAx val="-345194464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2039,7 +4024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1764959440"/>
+        <c:axId val="-345194464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +4074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1764970320"/>
+        <c:crossAx val="-345186304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2103,6 +4088,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2432,11 +4418,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1725651120"/>
-        <c:axId val="1725653296"/>
+        <c:axId val="-345193376"/>
+        <c:axId val="-345190656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1725651120"/>
+        <c:axId val="-345193376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +4465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725653296"/>
+        <c:crossAx val="-345190656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2487,7 +4473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725653296"/>
+        <c:axId val="-345190656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +4524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725651120"/>
+        <c:crossAx val="-345193376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3075,11 +5061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1546940432"/>
-        <c:axId val="1546942064"/>
+        <c:axId val="-351005840"/>
+        <c:axId val="-351005296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1546940432"/>
+        <c:axId val="-351005840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,7 +5108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1546942064"/>
+        <c:crossAx val="-351005296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3130,7 +5116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1546942064"/>
+        <c:axId val="-351005296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,7 +5167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1546940432"/>
+        <c:crossAx val="-351005840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3456,11 +5442,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1820097232"/>
-        <c:axId val="1820091792"/>
+        <c:axId val="-351001488"/>
+        <c:axId val="-437296352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1820097232"/>
+        <c:axId val="-351001488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,7 +5489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820091792"/>
+        <c:crossAx val="-437296352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3511,7 +5497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1820091792"/>
+        <c:axId val="-437296352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +5548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820097232"/>
+        <c:crossAx val="-351001488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3841,11 +5827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1820082000"/>
-        <c:axId val="1820092336"/>
+        <c:axId val="-437307232"/>
+        <c:axId val="-345212496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1820082000"/>
+        <c:axId val="-437307232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +5874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820092336"/>
+        <c:crossAx val="-345212496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3896,7 +5882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1820092336"/>
+        <c:axId val="-345212496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,7 +5933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820082000"/>
+        <c:crossAx val="-437307232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4188,11 +6174,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1820087440"/>
-        <c:axId val="1820082544"/>
+        <c:axId val="-340540000"/>
+        <c:axId val="-340548704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1820087440"/>
+        <c:axId val="-340540000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,7 +6218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820082544"/>
+        <c:crossAx val="-340548704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,7 +6226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1820082544"/>
+        <c:axId val="-340548704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,7 +6274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820087440"/>
+        <c:crossAx val="-340540000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4555,11 +6541,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1820084176"/>
-        <c:axId val="1820094512"/>
+        <c:axId val="-340539456"/>
+        <c:axId val="-340548160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1820084176"/>
+        <c:axId val="-340539456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,7 +6588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820094512"/>
+        <c:crossAx val="-340548160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4610,7 +6596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1820094512"/>
+        <c:axId val="-340548160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4661,7 +6647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820084176"/>
+        <c:crossAx val="-340539456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4834,6 +6820,52 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6702,6 +8734,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11056,6 +14115,220 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1200151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1057276</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Region"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3276600" y="12249151"/>
+              <a:ext cx="1828800" cy="1238250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are supported in Excel 2013 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1138237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>276226</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Region 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8124825" y="8734426"/>
+              <a:ext cx="1828800" cy="1524000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are supported in Excel 2013 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL 4" refreshedDate="45600.535787152781" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
   <cacheSource type="worksheet">
@@ -11179,6 +14452,83 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL 4" refreshedDate="45667.534349189817" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B12:D15" sheet="data filtering class"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="In Store sales " numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="17540" maxValue="22150" count="3">
+        <n v="22150"/>
+        <s v="1,37,522"/>
+        <n v="17540"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Web Site Sales " numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="14550" maxValue="43690" count="3">
+        <n v="43690"/>
+        <s v="1,51,200"/>
+        <n v="14550"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mail Order Sales" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27890" maxValue="57890" count="3">
+        <n v="57890"/>
+        <n v="43500"/>
+        <n v="27890"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL 4" refreshedDate="45678.722881944443" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:E5" sheet="data filtering - class - aravin"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="west"/>
+        <s v="East"/>
+        <s v="Midwest"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales Rep" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Mike"/>
+        <s v="Newton"/>
+        <s v="Marry"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COGS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="126"/>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1212" maxValue="12121" count="2">
+        <n v="12121"/>
+        <n v="1212"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
   <r>
@@ -11257,6 +14607,52 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+  <r>
+    <s v="14-06-2024"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="126"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="17-03-2023"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="16-09-2024"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="122"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
@@ -11277,7 +14673,98 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G114:G121" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <formats count="5">
+    <format dxfId="50">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A129:C134" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -11354,6 +14841,37 @@
     <dataField name="Count of COGS" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Count of Sales Rep" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="6">
+    <format dxfId="56">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -11383,8 +14901,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="H125:I129" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -11429,6 +14947,30 @@
   <dataFields count="1">
     <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="6">
+    <format dxfId="62">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -11449,7 +14991,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K110:L114" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -11503,6 +15045,30 @@
   <dataFields count="1">
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="6">
+    <format dxfId="68">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -11523,19 +15089,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G114:G121" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="InStore sales">
+  <location ref="A4:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="2"/>
@@ -11544,31 +15101,35 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
+  <rowFields count="1">
+    <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -11586,29 +15147,209 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H15:L20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region" sourceName="Region">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="4" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region1" sourceName="Region">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Region" cache="Slicer_Region" caption="Region" style="SlicerStyleDark6" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Region 1" cache="Slicer_Region1" caption="Region" style="SlicerStyleDark6" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A21:E25" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A21:E25" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43">
   <autoFilter ref="A21:E24"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="2" name="Region" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="3" name="Sales Rep" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="COGS" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Sales" totalsRowFunction="max" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" name="Region" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" name="Sales Rep" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="4" name="COGS" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" name="Sales" totalsRowFunction="max" dataDxfId="34" totalsRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D29:H32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D29:H32" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="D29:H32"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" name="Region" dataDxfId="3"/>
-    <tableColumn id="3" name="Sales Rep" dataDxfId="2"/>
-    <tableColumn id="4" name="COGS" dataDxfId="1"/>
-    <tableColumn id="5" name="Sales" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="30"/>
+    <tableColumn id="2" name="Region" dataDxfId="29"/>
+    <tableColumn id="3" name="Sales Rep" dataDxfId="28"/>
+    <tableColumn id="4" name="COGS" dataDxfId="27"/>
+    <tableColumn id="5" name="Sales" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:E7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:E7"/>
+  <sortState ref="A3:E6">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Date" dataDxfId="23"/>
+    <tableColumn id="2" name="Region" dataDxfId="22"/>
+    <tableColumn id="3" name="Sales Rep" dataDxfId="21"/>
+    <tableColumn id="4" name="COGS" dataDxfId="20"/>
+    <tableColumn id="5" name="Sales" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:E11" totalsRowCount="1" headerRowDxfId="12" dataDxfId="13">
+  <autoFilter ref="A7:E11">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="Region" dataDxfId="17" totalsRowDxfId="10"/>
+    <tableColumn id="3" name="Sales Rep" dataDxfId="16" totalsRowDxfId="9"/>
+    <tableColumn id="4" name="COGS" dataDxfId="15" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="Sales" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="7">
+      <totalsRowFormula>SUM(Table1[Sales])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="I7:M10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="I7:M10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" name="Region" dataDxfId="5"/>
+    <tableColumn id="3" name="Sales Rep" dataDxfId="4"/>
+    <tableColumn id="4" name="COGS" dataDxfId="3"/>
+    <tableColumn id="5" name="Sales" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11886,94 +15627,94 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11985,1679 +15726,1665 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView topLeftCell="B111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="41.25" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="86.25" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1"/>
-    <col min="7" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="21.7109375" style="1"/>
+    <col min="1" max="16384" width="22.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="12">
         <v>126</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="12">
         <v>12121</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="12">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="12">
         <v>12121</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="12">
         <v>122</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="12">
         <v>1212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="12">
         <v>126</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="12">
         <v>12121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="12">
         <v>12</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="12">
         <v>12121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="12">
         <v>122</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="12">
         <v>1212</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="12">
         <v>126</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="12">
         <v>12121</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="12">
         <v>12</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="12">
         <v>12121</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="12">
         <v>122</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="12">
         <v>1212</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="12">
         <v>122</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="12">
         <v>1212</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="12">
         <v>126</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="12">
         <v>12121</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="12">
         <v>12</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="12">
         <v>12121</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="12">
         <v>122</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="12">
         <v>1212</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="12">
         <f>SUBTOTAL(104,Table2[Sales])</f>
         <v>12121</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="12">
         <v>126</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="12">
         <v>12121</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="12">
         <v>12</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="12">
         <v>12121</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="12">
         <v>122</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="12">
         <v>1212</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    <row r="33" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="41.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:7" ht="86.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="12">
         <v>126</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="12">
         <v>12121</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="41.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="3" t="s">
+    <row r="39" spans="1:7" ht="86.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="12">
         <f>SUBTOTAL(9,G38:G38)</f>
         <v>12121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="41.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:7" ht="86.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="12">
         <v>12</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="12">
         <v>12121</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="41.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="3" t="s">
+    <row r="41" spans="1:7" ht="86.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="12">
         <f>SUBTOTAL(9,G40:G40)</f>
         <v>12121</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="41.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="1:7" ht="86.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="12">
         <v>122</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="12">
         <v>1212</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="41.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="3" t="s">
+    <row r="43" spans="1:7" ht="86.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="12">
         <f>SUBTOTAL(9,G42:G42)</f>
         <v>1212</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="3" t="s">
+    <row r="44" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="12">
         <f>SUBTOTAL(9,G38:G42)</f>
         <v>25454</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="56" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="56" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2" t="s">
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="16">
         <v>22150</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="16">
         <v>43690</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="16">
         <v>57890</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="16">
         <v>43500</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="16">
         <v>17540</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="16">
         <v>14550</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="16">
         <v>27890</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+    <row r="62" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="12">
         <v>2500</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="12">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="12">
         <v>6000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
         <v>2019</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="12">
         <v>1221211</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
         <v>2020</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="12">
         <v>123213213</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
         <v>2021</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="12">
         <v>123311111111111</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
         <v>2022</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="12">
         <v>1.11111111111111E+19</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="12">
         <v>2500</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="12">
         <v>1000</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="12">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="12">
         <v>2600</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="12">
         <v>1400</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="12">
         <v>6000</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+    <row r="90" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-    </row>
-    <row r="91" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+    </row>
+    <row r="91" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="12">
         <v>900</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="12">
         <v>800</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="12">
         <v>600</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="12">
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="12">
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
+    <row r="100" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-    </row>
-    <row r="101" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+    </row>
+    <row r="101" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="12">
         <v>80</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="12">
         <v>44</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="12">
         <v>66</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="12">
         <v>90</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="12">
         <v>45</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="12">
         <v>21</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="12">
         <v>-56</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="12">
         <v>56</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="12">
         <v>66</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="12">
         <v>456</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+    <row r="108" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="1" t="s">
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="K108"/>
-      <c r="L108"/>
-    </row>
-    <row r="109" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F109" s="1" t="s">
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K110" s="14" t="s">
+      <c r="K110" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-    </row>
-    <row r="111" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+    </row>
+    <row r="111" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="12">
         <v>126</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="12">
         <v>12121</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K111" s="15" t="s">
+      <c r="K111" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L111" s="18">
+      <c r="L111" s="20">
         <v>12121</v>
       </c>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-    </row>
-    <row r="112" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+    </row>
+    <row r="112" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="12">
         <v>12</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="12">
         <v>12121</v>
       </c>
-      <c r="K112" s="15" t="s">
+      <c r="K112" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L112" s="18">
+      <c r="L112" s="20">
         <v>1212</v>
       </c>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
-    </row>
-    <row r="113" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+    </row>
+    <row r="113" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="12">
         <v>122</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="12">
         <v>1212</v>
       </c>
-      <c r="K113" s="15" t="s">
+      <c r="K113" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L113" s="18">
+      <c r="L113" s="20">
         <v>12121</v>
       </c>
-      <c r="M113"/>
-      <c r="N113"/>
-      <c r="O113"/>
-    </row>
-    <row r="114" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G114" s="14" t="s">
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+    </row>
+    <row r="114" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G114" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="K114" s="15" t="s">
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="K114" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L114" s="18">
+      <c r="L114" s="20">
         <v>25454</v>
       </c>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-    </row>
-    <row r="115" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G115" s="15" t="s">
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+    </row>
+    <row r="115" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G115" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-    </row>
-    <row r="116" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G116" s="16" t="s">
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+    </row>
+    <row r="116" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G116" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116"/>
-    </row>
-    <row r="117" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G117" s="15" t="s">
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+    </row>
+    <row r="117" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G117" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="K117"/>
-      <c r="L117"/>
-      <c r="M117"/>
-    </row>
-    <row r="118" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G118" s="16" t="s">
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+    </row>
+    <row r="118" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G118" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118"/>
-    </row>
-    <row r="119" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G119" s="15" t="s">
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+    </row>
+    <row r="119" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G119" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119"/>
-    </row>
-    <row r="120" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G120" s="16" t="s">
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+    </row>
+    <row r="120" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G120" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120"/>
-    </row>
-    <row r="121" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G121" s="15" t="s">
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+    </row>
+    <row r="121" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G121" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121"/>
-    </row>
-    <row r="122" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+    </row>
+    <row r="122" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="K122"/>
-      <c r="L122"/>
-      <c r="M122"/>
-    </row>
-    <row r="123" spans="1:15" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="17" t="s">
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="K123"/>
-      <c r="L123"/>
-      <c r="M123"/>
-    </row>
-    <row r="124" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+    </row>
+    <row r="124" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="12">
         <v>126</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="12">
         <v>12121</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-    </row>
-    <row r="125" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+    </row>
+    <row r="125" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="12">
         <v>12</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="12">
         <v>12121</v>
       </c>
-      <c r="G125"/>
-      <c r="H125" s="14" t="s">
+      <c r="G125" s="17"/>
+      <c r="H125" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-    </row>
-    <row r="126" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+    </row>
+    <row r="126" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="12">
         <v>122</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="12">
         <v>1212</v>
       </c>
-      <c r="G126"/>
-      <c r="H126" s="15" t="s">
+      <c r="G126" s="17"/>
+      <c r="H126" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I126" s="18">
+      <c r="I126" s="20">
         <v>1212</v>
       </c>
-      <c r="J126"/>
-    </row>
-    <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="J126" s="17"/>
+    </row>
+    <row r="127" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G127"/>
-      <c r="H127" s="15" t="s">
+      <c r="G127" s="17"/>
+      <c r="H127" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I127" s="18">
+      <c r="I127" s="20">
         <v>12121</v>
       </c>
-      <c r="J127"/>
-    </row>
-    <row r="128" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="G128"/>
-      <c r="H128" s="15" t="s">
+      <c r="J127" s="17"/>
+    </row>
+    <row r="128" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G128" s="17"/>
+      <c r="H128" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I128" s="18">
+      <c r="I128" s="20">
         <v>12121</v>
       </c>
-      <c r="J128"/>
-    </row>
-    <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="J128" s="17"/>
+    </row>
+    <row r="129" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="G129"/>
-      <c r="H129" s="15" t="s">
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I129" s="18">
+      <c r="I129" s="20">
         <v>25454</v>
       </c>
-      <c r="J129"/>
-    </row>
-    <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="18">
+      <c r="B130" s="20">
         <v>1</v>
       </c>
-      <c r="C130" s="18">
+      <c r="C130" s="20">
         <v>1</v>
       </c>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130" s="1" t="s">
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-    </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+    </row>
+    <row r="131" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B131" s="18">
+      <c r="B131" s="20">
         <v>1</v>
       </c>
-      <c r="C131" s="18">
+      <c r="C131" s="20">
         <v>1</v>
       </c>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131" s="1" t="s">
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
-    </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+    </row>
+    <row r="132" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="18">
+      <c r="B132" s="20">
         <v>1</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C132" s="20">
         <v>1</v>
       </c>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132"/>
-    </row>
-    <row r="133" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+    </row>
+    <row r="133" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133" s="1" t="s">
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
-    </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B134" s="18">
+      <c r="B134" s="20">
         <v>3</v>
       </c>
-      <c r="C134" s="18">
+      <c r="C134" s="20">
         <v>3</v>
       </c>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
-    </row>
-    <row r="135" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135"/>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135" s="1" t="s">
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+    </row>
+    <row r="135" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="17"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-    </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136"/>
-      <c r="B136"/>
-      <c r="C136" s="21" t="s">
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+    </row>
+    <row r="136" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="17"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="H136"/>
-      <c r="I136"/>
-      <c r="J136"/>
-    </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137"/>
-      <c r="B137"/>
-      <c r="C137" t="s">
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="17"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="H137"/>
-      <c r="I137"/>
-      <c r="J137"/>
-    </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-    </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139"/>
-      <c r="B139"/>
-      <c r="C139" s="21" t="s">
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+    </row>
+    <row r="138" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="17"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="17"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
-    </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140"/>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140" s="1" t="s">
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+    </row>
+    <row r="140" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="17"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-    </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141"/>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-    </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142"/>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-    </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143" s="21" t="s">
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+    </row>
+    <row r="141" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="17"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+    </row>
+    <row r="143" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="17"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-      <c r="B144"/>
-      <c r="C144" t="s">
+    <row r="144" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="B145"/>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146"/>
-      <c r="B146"/>
-      <c r="C146"/>
+    <row r="145" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="17"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+    </row>
+    <row r="146" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="17"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -13703,4 +17430,975 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>17540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>22150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="108.75" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="22.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="I1" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="108.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12">
+        <v>122</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1212</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="12">
+        <v>126</v>
+      </c>
+      <c r="K3" s="12">
+        <v>12121</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="12">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="108.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="G4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14">
+        <f>SUBTOTAL(9,K3:K3)</f>
+        <v>12121</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="108.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>126</v>
+      </c>
+      <c r="E5" s="12">
+        <v>12121</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="12">
+        <v>12</v>
+      </c>
+      <c r="K5" s="12">
+        <v>12121</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="108.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14">
+        <f>SUBTOTAL(9,K5:K5)</f>
+        <v>12121</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="108.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12121</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="12">
+        <v>122</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1212</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="108.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <f>SUBTOTAL(9,K7:K7)</f>
+        <v>1212</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="G9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14">
+        <f>SUBTOTAL(9,K3:K7)</f>
+        <v>25454</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="16">
+        <v>22150</v>
+      </c>
+      <c r="C13" s="16">
+        <v>43690</v>
+      </c>
+      <c r="D13" s="16">
+        <v>57890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="16">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="16">
+        <v>17540</v>
+      </c>
+      <c r="C15" s="16">
+        <v>14550</v>
+      </c>
+      <c r="D15" s="16">
+        <v>27890</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="98.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="20.85546875" style="29"/>
+    <col min="8" max="8" width="13.140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="6" style="29" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="29" customWidth="1"/>
+    <col min="13" max="16384" width="20.85546875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>126</v>
+      </c>
+      <c r="E3" s="12">
+        <v>12121</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="12">
+        <v>126</v>
+      </c>
+      <c r="N3" s="12">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12121</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="12">
+        <v>12</v>
+      </c>
+      <c r="N4" s="12">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12">
+        <v>122</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12">
+        <v>126</v>
+      </c>
+      <c r="E8" s="12">
+        <v>12121</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="12">
+        <v>126</v>
+      </c>
+      <c r="M8" s="12">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>12121</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="12">
+        <v>12</v>
+      </c>
+      <c r="M9" s="12">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12">
+        <v>122</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1212</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="12">
+        <v>122</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <f>SUM(Table1[Sales])</f>
+        <v>25454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="H15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="H16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31">
+        <v>1212</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31">
+        <v>12121</v>
+      </c>
+      <c r="L18" s="31">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="31">
+        <v>12121</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="31">
+        <v>12121</v>
+      </c>
+      <c r="J20" s="31">
+        <v>1212</v>
+      </c>
+      <c r="K20" s="31">
+        <v>12121</v>
+      </c>
+      <c r="L20" s="31">
+        <v>25454</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId5"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Excel/data_filtering_charts.xlsx
+++ b/Excel/data_filtering_charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12930" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="12930" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="data filtering class" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
     <sheet name="data filtering - class - aravin" sheetId="6" r:id="rId7"/>
+    <sheet name="class - vs" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'data filtering - class - aravin'!$A$2:$E$5</definedName>
@@ -33,23 +34,29 @@
     <definedName name="mytable">Table3[#All]</definedName>
     <definedName name="Slicer_Region">#N/A</definedName>
     <definedName name="Slicer_Region1">#N/A</definedName>
+    <definedName name="Slicer_Region2">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
     <pivotCache cacheId="3" r:id="rId11"/>
-    <pivotCache cacheId="13" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId12"/>
+    <pivotCache cacheId="5" r:id="rId13"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId14"/>
+      </x14:slicerCaches>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId13"/>
-        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -736,6 +743,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,18 +759,119 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="69">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1001,114 +1116,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1924,11 +1931,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-345191744"/>
-        <c:axId val="-345191200"/>
+        <c:axId val="385326864"/>
+        <c:axId val="385333936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-345191744"/>
+        <c:axId val="385326864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +1975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-345191200"/>
+        <c:crossAx val="385333936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1976,7 +1983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-345191200"/>
+        <c:axId val="385333936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-345191744"/>
+        <c:crossAx val="385326864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,11 +2282,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-340551424"/>
-        <c:axId val="-340553056"/>
+        <c:axId val="384211568"/>
+        <c:axId val="384206672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-340551424"/>
+        <c:axId val="384211568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340553056"/>
+        <c:crossAx val="384206672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2330,7 +2337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-340553056"/>
+        <c:axId val="384206672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340551424"/>
+        <c:crossAx val="384211568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2681,11 +2688,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-340552512"/>
-        <c:axId val="-340551968"/>
+        <c:axId val="384206128"/>
+        <c:axId val="384200688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-340552512"/>
+        <c:axId val="384206128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340551968"/>
+        <c:crossAx val="384200688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2736,7 +2743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-340551968"/>
+        <c:axId val="384200688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,7 +2794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340552512"/>
+        <c:crossAx val="384206128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3338,11 +3345,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-340538912"/>
-        <c:axId val="-340550880"/>
+        <c:axId val="384201232"/>
+        <c:axId val="384209936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-340538912"/>
+        <c:axId val="384201232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,7 +3405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340550880"/>
+        <c:crossAx val="384209936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3406,7 +3413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-340550880"/>
+        <c:axId val="384209936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,7 +3423,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-340538912"/>
+        <c:crossAx val="384201232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3750,11 +3757,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-165438416"/>
-        <c:axId val="-165444944"/>
+        <c:axId val="384207760"/>
+        <c:axId val="384209392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-165438416"/>
+        <c:axId val="384207760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3796,7 +3803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-165444944"/>
+        <c:crossAx val="384209392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3804,7 +3811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-165444944"/>
+        <c:axId val="384209392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,7 +3856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-165438416"/>
+        <c:crossAx val="384207760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3970,11 +3977,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-345186304"/>
-        <c:axId val="-345194464"/>
+        <c:axId val="385330128"/>
+        <c:axId val="385330672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-345186304"/>
+        <c:axId val="385330128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4016,7 +4023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-345194464"/>
+        <c:crossAx val="385330672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4024,7 +4031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-345194464"/>
+        <c:axId val="385330672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,7 +4081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-345186304"/>
+        <c:crossAx val="385330128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4181,7 +4188,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4418,11 +4424,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-345193376"/>
-        <c:axId val="-345190656"/>
+        <c:axId val="385336656"/>
+        <c:axId val="385333392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-345193376"/>
+        <c:axId val="385336656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4465,7 +4471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-345190656"/>
+        <c:crossAx val="385333392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4473,7 +4479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-345190656"/>
+        <c:axId val="385333392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4524,7 +4530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-345193376"/>
+        <c:crossAx val="385336656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4538,7 +4544,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4620,7 +4625,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4854,7 +4858,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4936,7 +4939,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5061,11 +5063,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-351005840"/>
-        <c:axId val="-351005296"/>
+        <c:axId val="385322512"/>
+        <c:axId val="385323056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-351005840"/>
+        <c:axId val="385322512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5108,7 +5110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-351005296"/>
+        <c:crossAx val="385323056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5116,7 +5118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-351005296"/>
+        <c:axId val="385323056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5167,7 +5169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-351005840"/>
+        <c:crossAx val="385322512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5181,7 +5183,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5263,7 +5264,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5442,11 +5442,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-351001488"/>
-        <c:axId val="-437296352"/>
+        <c:axId val="385327952"/>
+        <c:axId val="385331216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-351001488"/>
+        <c:axId val="385327952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5489,7 +5489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-437296352"/>
+        <c:crossAx val="385331216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5497,7 +5497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-437296352"/>
+        <c:axId val="385331216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5548,7 +5548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-351001488"/>
+        <c:crossAx val="385327952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5562,7 +5562,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5644,7 +5643,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5827,11 +5825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-437307232"/>
-        <c:axId val="-345212496"/>
+        <c:axId val="385300448"/>
+        <c:axId val="385300992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-437307232"/>
+        <c:axId val="385300448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,7 +5872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-345212496"/>
+        <c:crossAx val="385300992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5882,7 +5880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-345212496"/>
+        <c:axId val="385300992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5933,7 +5931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-437307232"/>
+        <c:crossAx val="385300448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5947,7 +5945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6029,7 +6026,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6174,11 +6170,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-340540000"/>
-        <c:axId val="-340548704"/>
+        <c:axId val="289955392"/>
+        <c:axId val="384202864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-340540000"/>
+        <c:axId val="289955392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6218,7 +6214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340548704"/>
+        <c:crossAx val="384202864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6226,7 +6222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-340548704"/>
+        <c:axId val="384202864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6274,7 +6270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340540000"/>
+        <c:crossAx val="289955392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6342,7 +6338,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6541,11 +6536,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-340539456"/>
-        <c:axId val="-340548160"/>
+        <c:axId val="384205040"/>
+        <c:axId val="384203952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-340539456"/>
+        <c:axId val="384205040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6588,7 +6583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340548160"/>
+        <c:crossAx val="384203952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6596,7 +6591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-340548160"/>
+        <c:axId val="384203952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6647,7 +6642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-340539456"/>
+        <c:crossAx val="384205040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6661,7 +6656,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14237,8 +14231,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>276226</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Region 1"/>
@@ -14255,7 +14249,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14324,6 +14318,78 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Region 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11058525" y="14973300"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14523,7 +14589,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="2"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -14654,7 +14720,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -14673,98 +14739,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G114:G121" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <formats count="5">
-    <format dxfId="50">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A129:C134" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -14842,26 +14817,26 @@
     <dataField name="Count of Sales Rep" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="56">
+    <format dxfId="51">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="49">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -14901,8 +14876,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="H125:I129" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -14948,26 +14923,26 @@
     <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="62">
+    <format dxfId="57">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="55">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14991,8 +14966,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K110:L114" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -15046,26 +15021,26 @@
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="68">
+    <format dxfId="63">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="62">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="61">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15089,8 +15064,99 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G114:G121" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <formats count="5">
+    <format dxfId="68">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="InStore sales">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="InStore sales">
   <location ref="A4:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -15148,7 +15214,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -15167,7 +15233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H15:L20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -15243,6 +15309,23 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region2" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="6" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region" sourceName="Region">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -15252,7 +15335,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region1" sourceName="Region">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -15269,6 +15352,12 @@
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Region 2" cache="Slicer_Region2" caption="Region" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Region 1" cache="Slicer_Region1" caption="Region" style="SlicerStyleDark6" rowHeight="241300"/>
 </slicers>
@@ -15320,8 +15409,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:E11" totalsRowCount="1" headerRowDxfId="12" dataDxfId="13">
-  <autoFilter ref="A7:E11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:E11" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A7:E10">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -15329,11 +15418,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Region" dataDxfId="17" totalsRowDxfId="10"/>
-    <tableColumn id="3" name="Sales Rep" dataDxfId="16" totalsRowDxfId="9"/>
-    <tableColumn id="4" name="COGS" dataDxfId="15" totalsRowDxfId="8"/>
-    <tableColumn id="5" name="Sales" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="7">
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="2" name="Region" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="Sales Rep" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="COGS" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Sales" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
       <totalsRowFormula>SUM(Table1[Sales])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -15342,14 +15431,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="I7:M10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="I7:M10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="I7:M10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" dataDxfId="6"/>
-    <tableColumn id="2" name="Region" dataDxfId="5"/>
-    <tableColumn id="3" name="Sales Rep" dataDxfId="4"/>
-    <tableColumn id="4" name="COGS" dataDxfId="3"/>
-    <tableColumn id="5" name="Sales" dataDxfId="2"/>
+    <tableColumn id="1" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" name="Region" dataDxfId="3"/>
+    <tableColumn id="3" name="Sales Rep" dataDxfId="2"/>
+    <tableColumn id="4" name="COGS" dataDxfId="1"/>
+    <tableColumn id="5" name="Sales" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15726,7 +15815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView topLeftCell="B111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
@@ -15736,13 +15825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -16012,15 +16101,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -16112,14 +16201,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -16229,12 +16318,12 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
@@ -16352,12 +16441,12 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
@@ -16418,21 +16507,21 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
     </row>
     <row r="56" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
@@ -16501,13 +16590,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
     </row>
     <row r="63" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -16667,13 +16756,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
     </row>
     <row r="91" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
@@ -16732,12 +16821,12 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
     </row>
     <row r="101" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
@@ -16816,13 +16905,13 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
       <c r="F108" s="12" t="s">
         <v>105</v>
       </c>
@@ -17030,14 +17119,14 @@
       <c r="M121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
@@ -17492,13 +17581,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="I1" s="23" t="s">
         <v>132</v>
       </c>
@@ -17774,12 +17863,12 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:17" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -17964,19 +18053,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="98.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="20.85546875" style="29"/>
-    <col min="8" max="8" width="13.140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="6" style="29" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="29" customWidth="1"/>
-    <col min="13" max="16384" width="20.85546875" style="29"/>
+    <col min="1" max="7" width="20.85546875" style="26"/>
+    <col min="8" max="8" width="13.140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="6" style="26" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="20.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18027,7 +18116,7 @@
       <c r="E3" s="12">
         <v>12121</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -18062,7 +18151,7 @@
       <c r="E4" s="12">
         <v>12121</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>131</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -18099,19 +18188,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="15" t="s">
@@ -18274,12 +18363,12 @@
       <c r="H17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31">
+      <c r="I17" s="28"/>
+      <c r="J17" s="28">
         <v>1212</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28">
         <v>1212</v>
       </c>
     </row>
@@ -18287,12 +18376,12 @@
       <c r="H18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31">
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28">
         <v>12121</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="28">
         <v>12121</v>
       </c>
     </row>
@@ -18300,12 +18389,12 @@
       <c r="H19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="28">
         <v>12121</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31">
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28">
         <v>12121</v>
       </c>
     </row>
@@ -18313,16 +18402,16 @@
       <c r="H20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="28">
         <v>12121</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="28">
         <v>1212</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="28">
         <v>12121</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="28">
         <v>25454</v>
       </c>
     </row>
@@ -18394,11 +18483,30 @@
     <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId5"/>
+      </x14:slicerList>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId5"/>
+        <x14:slicer r:id="rId6"/>
       </x14:slicerList>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>